--- a/scripts/data/store_config_Table.xlsx
+++ b/scripts/data/store_config_Table.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59BB38BD-8779-4250-92B3-C5B5DE81FACB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +38,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1001;10#1002;10#1003;10#1004;10</t>
+    <t>1001;10#1002;10#1003;10#1004;10#1005;10#1006;10#1007;10#1008;10#1009;10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +377,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/scripts/data/store_config_Table.xlsx
+++ b/scripts/data/store_config_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine-1.0.0\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{59BB38BD-8779-4250-92B3-C5B5DE81FACB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECD641CB-4F4B-427E-AF94-A0A6879C4D47}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" tabRatio="483" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@商店道具配置表#store_config_Table" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1001;10#1002;10#1003;10#1004;10#1005;10#1006;10#1007;10#1008;10#1009;10</t>
+    <t>1001;10#1002;10#1003;10#1004;10#1005;10#1006;10#1007;10#1008;10#1009;10#1010;10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -377,13 +377,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="184.25" customWidth="1"/>
+    <col min="2" max="2" width="160.375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
